--- a/excel/TestResult.xlsx
+++ b/excel/TestResult.xlsx
@@ -554,7 +554,7 @@
         <v>0.6562615384615387</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4234247440959693</v>
+        <v>0.3778042884942297</v>
       </c>
     </row>
     <row r="3">
@@ -601,7 +601,7 @@
         <v>-0.8105953846153846</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.798635361049736</v>
+        <v>-0.7818128266800614</v>
       </c>
     </row>
     <row r="4">
@@ -648,7 +648,7 @@
         <v>0.02046153846153852</v>
       </c>
       <c r="O4" t="n">
-        <v>0.198578104117166</v>
+        <v>0.06395313950260406</v>
       </c>
     </row>
     <row r="5">
@@ -742,7 +742,7 @@
         <v>0.5500416666666665</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6908865949079199</v>
+        <v>0.7410272112919791</v>
       </c>
     </row>
     <row r="7">
@@ -789,7 +789,7 @@
         <v>0.8548214285714285</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7358139679783997</v>
+        <v>0.7598969396654216</v>
       </c>
     </row>
     <row r="8">
@@ -836,7 +836,7 @@
         <v>-0.381205128205128</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.2972032788860859</v>
+        <v>-0.2855420495453319</v>
       </c>
     </row>
     <row r="9">
@@ -883,7 +883,7 @@
         <v>-0.5399939130434782</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.37048127711417</v>
+        <v>-0.3701099164964892</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +930,7 @@
         <v>0.745345</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7441328614328214</v>
+        <v>0.73031764670091</v>
       </c>
     </row>
     <row r="11">
@@ -977,7 +977,7 @@
         <v>0.9070000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9522684332309462</v>
+        <v>0.9358689257176003</v>
       </c>
     </row>
   </sheetData>
